--- a/www/ig/fhir/core/StructureDefinition-fr-core-organization.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T09:47:43+01:00</t>
+    <t>2024-02-20T11:21:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-organization.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:21:14+01:00</t>
+    <t>2024-02-20T11:36:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-organization.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5684" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5612" uniqueCount="611">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T11:49:14+02:00</t>
+    <t>2024-09-04T10:06:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Interop'Santé (http://interopsante.org/)</t>
   </si>
   <si>
-    <t>InteropSanté (fhir@interopsante.org(WORK))</t>
+    <t>InteropSanté (fhir@interopsante.org(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -700,8 +700,8 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:system}
-</t>
+    <t>pattern:system}
+pattern:type}</t>
   </si>
   <si>
     <t>Slice based on the identifier.system pattern</t>
@@ -956,40 +956,125 @@
     <t>Organization.identifier:idNatSt.assigner</t>
   </si>
   <si>
-    <t>Organization.identifier:sirene</t>
-  </si>
-  <si>
-    <t>sirene</t>
-  </si>
-  <si>
-    <t>Identifiant SIREN (9 chiffres) ou SIRET (14 chiffres)</t>
-  </si>
-  <si>
-    <t>Organization.identifier:sirene.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:sirene.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:sirene.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:sirene.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier:sirene.type.id</t>
+    <t>Organization.identifier:siren</t>
+  </si>
+  <si>
+    <t>siren</t>
+  </si>
+  <si>
+    <t>Identifiant SIREN (9 chiffres)</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siren.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siren.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siren.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siren.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
+    &lt;code value="SIREN"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siren.system</t>
+  </si>
+  <si>
+    <t>https://sirene.fr</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siren.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siren.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siren.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siret</t>
+  </si>
+  <si>
+    <t>siret</t>
+  </si>
+  <si>
+    <t>Identifiant SIRET (14 chiffres)</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siret.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siret.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siret.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siret.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
+    &lt;code value="SIRET"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siret.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siret.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siret.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:siret.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier:finess</t>
+  </si>
+  <si>
+    <t>finess</t>
+  </si>
+  <si>
+    <t>Identifiant FINESS Entité Géographique (EG) ou Entité Juridique (EJ)</t>
+  </si>
+  <si>
+    <t>Organization.identifier:finess.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:finess.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:finess.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:finess.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier:finess.type.id</t>
   </si>
   <si>
     <t>Organization.identifier.type.id</t>
   </si>
   <si>
-    <t>Organization.identifier:sirene.type.extension</t>
+    <t>Organization.identifier:finess.type.extension</t>
   </si>
   <si>
     <t>Organization.identifier.type.extension</t>
   </si>
   <si>
-    <t>Organization.identifier:sirene.type.coding</t>
+    <t>Organization.identifier:finess.type.coding</t>
   </si>
   <si>
     <t>Organization.identifier.type.coding</t>
@@ -1016,19 +1101,19 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Organization.identifier:sirene.type.coding.id</t>
+    <t>Organization.identifier:finess.type.coding.id</t>
   </si>
   <si>
     <t>Organization.identifier.type.coding.id</t>
   </si>
   <si>
-    <t>Organization.identifier:sirene.type.coding.extension</t>
+    <t>Organization.identifier:finess.type.coding.extension</t>
   </si>
   <si>
     <t>Organization.identifier.type.coding.extension</t>
   </si>
   <si>
-    <t>Organization.identifier:sirene.type.coding.system</t>
+    <t>Organization.identifier:finess.type.coding.system</t>
   </si>
   <si>
     <t>Organization.identifier.type.coding.system</t>
@@ -1058,7 +1143,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Organization.identifier:sirene.type.coding.version</t>
+    <t>Organization.identifier:finess.type.coding.version</t>
   </si>
   <si>
     <t>Organization.identifier.type.coding.version</t>
@@ -1082,13 +1167,13 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Organization.identifier:sirene.type.coding.code</t>
+    <t>Organization.identifier:finess.type.coding.code</t>
   </si>
   <si>
     <t>Organization.identifier.type.coding.code</t>
   </si>
   <si>
-    <t>SIREN | SIRET</t>
+    <t>FINEJ | FINEG</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
@@ -1106,7 +1191,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Organization.identifier:sirene.type.coding.display</t>
+    <t>Organization.identifier:finess.type.coding.display</t>
   </si>
   <si>
     <t>Organization.identifier.type.coding.display</t>
@@ -1130,7 +1215,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Organization.identifier:sirene.type.coding.userSelected</t>
+    <t>Organization.identifier:finess.type.coding.userSelected</t>
   </si>
   <si>
     <t>Organization.identifier.type.coding.userSelected</t>
@@ -1161,7 +1246,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Organization.identifier:sirene.type.text</t>
+    <t>Organization.identifier:finess.type.text</t>
   </si>
   <si>
     <t>Organization.identifier.type.text</t>
@@ -1186,78 +1271,6 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Organization.identifier:sirene.system</t>
-  </si>
-  <si>
-    <t>https://sirene.fr</t>
-  </si>
-  <si>
-    <t>Organization.identifier:sirene.value</t>
-  </si>
-  <si>
-    <t>Organization.identifier:sirene.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier:sirene.assigner</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess</t>
-  </si>
-  <si>
-    <t>finess</t>
-  </si>
-  <si>
-    <t>Identifiant FINESS Entité Géographique (EG) ou Entité Juridique (EJ)</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.type.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.type.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.type.coding</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.type.coding.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.type.coding.system</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.type.coding.version</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.type.coding.code</t>
-  </si>
-  <si>
-    <t>FINEJ | FINEG</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.type.coding.display</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Organization.identifier:finess.type.text</t>
   </si>
   <si>
     <t>Organization.identifier:finess.system</t>
@@ -1409,7 +1422,7 @@
     <t>http://hl7.org/fhir/ValueSet/organization-type</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>
@@ -2220,7 +2233,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN156"/>
+  <dimension ref="A1:AN154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4646,7 +4659,7 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>117</v>
@@ -6275,7 +6288,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
@@ -7305,7 +7318,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
@@ -7342,7 +7355,7 @@
         <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>78</v>
@@ -7410,10 +7423,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7433,19 +7446,23 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7454,10 +7471,10 @@
         <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>78</v>
@@ -7493,7 +7510,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7505,16 +7522,16 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7522,21 +7539,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7545,19 +7562,19 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>111</v>
+        <v>258</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7571,7 +7588,7 @@
         <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>78</v>
@@ -7595,40 +7612,40 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>116</v>
+        <v>261</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7639,7 +7656,7 @@
         <v>312</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7650,7 +7667,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7662,20 +7679,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7723,13 +7736,13 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
@@ -7738,13 +7751,13 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7752,10 +7765,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7775,18 +7788,20 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>103</v>
+        <v>275</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7835,7 +7850,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7847,16 +7862,16 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7864,14 +7879,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="D50" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7887,21 +7904,21 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>110</v>
+        <v>316</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7937,19 +7954,19 @@
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7958,30 +7975,30 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8001,23 +8018,19 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>327</v>
+        <v>103</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8026,7 +8039,7 @@
         <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>78</v>
@@ -8065,7 +8078,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>332</v>
+        <v>105</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8077,13 +8090,13 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>334</v>
+        <v>106</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -8094,21 +8107,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>336</v>
+        <v>227</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -8117,19 +8130,19 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>337</v>
+        <v>110</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>338</v>
+        <v>111</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>339</v>
+        <v>112</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8167,37 +8180,37 @@
         <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>340</v>
+        <v>116</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>342</v>
+        <v>106</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -8208,10 +8221,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8228,7 +8241,7 @@
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>89</v>
@@ -8237,14 +8250,16 @@
         <v>168</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>347</v>
+        <v>232</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8269,13 +8284,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8293,7 +8308,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>348</v>
+        <v>235</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8308,10 +8323,10 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>349</v>
+        <v>191</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>350</v>
+        <v>236</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -8322,10 +8337,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>352</v>
+        <v>237</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8333,7 +8348,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8348,17 +8363,19 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>102</v>
+        <v>238</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>353</v>
+        <v>239</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>355</v>
+        <v>242</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8368,7 +8385,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8383,13 +8400,13 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8407,7 +8424,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8422,10 +8439,10 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>357</v>
+        <v>245</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>358</v>
+        <v>236</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8436,10 +8453,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8462,19 +8479,19 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>361</v>
+        <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>362</v>
+        <v>247</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>363</v>
+        <v>248</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>364</v>
+        <v>249</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8484,10 +8501,10 @@
         <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>78</v>
@@ -8523,7 +8540,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>366</v>
+        <v>252</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8538,13 +8555,13 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>367</v>
+        <v>253</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8552,10 +8569,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>370</v>
+        <v>256</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8581,17 +8598,15 @@
         <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>371</v>
+        <v>257</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>372</v>
+        <v>258</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8603,7 +8618,7 @@
         <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>78</v>
@@ -8639,7 +8654,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>375</v>
+        <v>261</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8654,13 +8669,13 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>376</v>
+        <v>262</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>377</v>
+        <v>263</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8668,10 +8683,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8694,20 +8709,16 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8716,10 +8727,10 @@
         <v>78</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>78</v>
@@ -8755,7 +8766,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8770,13 +8781,13 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8784,10 +8795,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8810,16 +8821,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8833,7 +8844,7 @@
         <v>78</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>78</v>
@@ -8869,7 +8880,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8884,13 +8895,13 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8898,12 +8909,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8912,7 +8925,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8924,16 +8937,18 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8981,39 +8996,39 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9033,20 +9048,18 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>274</v>
+        <v>102</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>275</v>
+        <v>103</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -9095,7 +9108,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>278</v>
+        <v>105</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9107,16 +9120,16 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>280</v>
+        <v>106</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9124,16 +9137,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9149,21 +9160,21 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>385</v>
+        <v>110</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9199,19 +9210,19 @@
         <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9220,30 +9231,30 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9260,22 +9271,26 @@
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9299,13 +9314,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9323,7 +9338,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9335,13 +9350,13 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9352,21 +9367,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9375,21 +9390,23 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9413,49 +9430,49 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9466,10 +9483,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9486,26 +9503,22 @@
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9529,13 +9542,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9553,7 +9566,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9565,13 +9578,13 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9582,21 +9595,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>237</v>
+        <v>336</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9605,23 +9618,21 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9645,49 +9656,49 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>244</v>
+        <v>116</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9698,10 +9709,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9712,7 +9723,7 @@
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9721,19 +9732,23 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>103</v>
+        <v>339</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9781,25 +9796,25 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>105</v>
+        <v>343</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>106</v>
+        <v>345</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9810,21 +9825,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9836,17 +9851,15 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9883,31 +9896,31 @@
         <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -9924,14 +9937,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9947,23 +9960,21 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>314</v>
+        <v>110</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9999,19 +10010,19 @@
         <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10023,13 +10034,13 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -10040,10 +10051,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10063,19 +10074,23 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10084,7 +10099,7 @@
         <v>78</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>78</v>
@@ -10123,7 +10138,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10135,13 +10150,13 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>106</v>
+        <v>359</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -10152,21 +10167,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10175,19 +10190,19 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>112</v>
+        <v>364</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10225,37 +10240,37 @@
         <v>78</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>116</v>
+        <v>365</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>106</v>
+        <v>367</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -10266,10 +10281,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10292,19 +10307,17 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10314,7 +10327,7 @@
         <v>78</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>78</v>
@@ -10353,7 +10366,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10368,10 +10381,10 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -10382,10 +10395,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10411,15 +10424,15 @@
         <v>102</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10467,7 +10480,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10482,10 +10495,10 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -10496,10 +10509,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10522,17 +10535,19 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>168</v>
+        <v>386</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O73" t="s" s="2">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10581,7 +10596,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10596,10 +10611,10 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -10610,10 +10625,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10639,14 +10654,16 @@
         <v>102</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O74" t="s" s="2">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10695,7 +10712,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10710,10 +10727,10 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -10724,10 +10741,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10750,19 +10767,19 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>361</v>
+        <v>130</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>362</v>
+        <v>247</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>363</v>
+        <v>248</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>364</v>
+        <v>249</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10772,10 +10789,10 @@
         <v>78</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>78</v>
@@ -10811,7 +10828,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>366</v>
+        <v>252</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10826,13 +10843,13 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>367</v>
+        <v>253</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10840,10 +10857,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>370</v>
+        <v>256</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10869,17 +10886,15 @@
         <v>102</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>371</v>
+        <v>257</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>372</v>
+        <v>258</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10891,7 +10906,7 @@
         <v>78</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>78</v>
@@ -10927,7 +10942,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>375</v>
+        <v>261</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10942,13 +10957,13 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>376</v>
+        <v>262</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>377</v>
+        <v>263</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10956,10 +10971,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10982,20 +10997,16 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
       </c>
@@ -11004,10 +11015,10 @@
         <v>78</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>78</v>
@@ -11043,7 +11054,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11058,13 +11069,13 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11072,10 +11083,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11098,16 +11109,16 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11121,7 +11132,7 @@
         <v>78</v>
       </c>
       <c r="T78" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="U78" t="s" s="2">
         <v>78</v>
@@ -11157,7 +11168,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11172,13 +11183,13 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11186,12 +11197,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11200,7 +11213,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -11212,16 +11225,18 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>267</v>
+        <v>410</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11269,39 +11284,39 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11321,20 +11336,18 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>274</v>
+        <v>102</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>275</v>
+        <v>103</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11383,7 +11396,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>278</v>
+        <v>105</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11395,16 +11408,16 @@
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>280</v>
+        <v>106</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11412,16 +11425,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11437,21 +11448,21 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>409</v>
+        <v>110</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11487,19 +11498,19 @@
         <v>78</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11508,30 +11519,30 @@
         <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11548,22 +11559,26 @@
         <v>78</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11587,13 +11602,13 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11611,7 +11626,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11623,13 +11638,13 @@
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -11640,21 +11655,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
@@ -11663,21 +11678,23 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11686,7 +11703,7 @@
         <v>78</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>78</v>
@@ -11701,49 +11718,49 @@
         <v>78</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
@@ -11754,10 +11771,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11774,25 +11791,25 @@
         <v>78</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -11802,10 +11819,10 @@
         <v>78</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>78</v>
@@ -11817,13 +11834,13 @@
         <v>78</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>78</v>
@@ -11841,7 +11858,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11856,13 +11873,13 @@
         <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11870,10 +11887,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11896,20 +11913,18 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>78</v>
       </c>
@@ -11918,10 +11933,10 @@
         <v>78</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>78</v>
@@ -11933,13 +11948,13 @@
         <v>78</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>78</v>
@@ -11957,7 +11972,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -11972,13 +11987,13 @@
         <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -11986,10 +12001,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12012,20 +12027,16 @@
         <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>78</v>
       </c>
@@ -12034,10 +12045,10 @@
         <v>78</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>78</v>
@@ -12073,7 +12084,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12088,13 +12099,13 @@
         <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12102,10 +12113,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12128,16 +12139,16 @@
         <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12151,7 +12162,7 @@
         <v>78</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>78</v>
@@ -12187,7 +12198,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12202,13 +12213,13 @@
         <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12216,12 +12227,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="D88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12230,7 +12243,7 @@
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
@@ -12242,16 +12255,18 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>267</v>
+        <v>423</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12299,39 +12314,39 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12351,20 +12366,18 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>274</v>
+        <v>102</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>275</v>
+        <v>103</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -12413,7 +12426,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>278</v>
+        <v>105</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12425,16 +12438,16 @@
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>280</v>
+        <v>106</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12442,16 +12455,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12467,21 +12478,21 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>422</v>
+        <v>110</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12517,19 +12528,19 @@
         <v>78</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12538,30 +12549,30 @@
         <v>80</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12578,22 +12589,26 @@
         <v>78</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12617,13 +12632,13 @@
         <v>78</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>78</v>
@@ -12641,7 +12656,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12653,13 +12668,13 @@
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
@@ -12670,21 +12685,21 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>78</v>
@@ -12693,21 +12708,23 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
       </c>
@@ -12716,7 +12733,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -12731,49 +12748,49 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>78</v>
@@ -12784,10 +12801,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12804,25 +12821,25 @@
         <v>78</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>78</v>
@@ -12832,10 +12849,10 @@
         <v>78</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>78</v>
+        <v>429</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>78</v>
@@ -12847,13 +12864,13 @@
         <v>78</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>78</v>
@@ -12871,7 +12888,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -12886,13 +12903,13 @@
         <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -12900,10 +12917,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12926,20 +12943,18 @@
         <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>78</v>
       </c>
@@ -12948,10 +12963,10 @@
         <v>78</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="T94" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="U94" t="s" s="2">
         <v>78</v>
@@ -12963,13 +12978,13 @@
         <v>78</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>78</v>
@@ -12987,7 +13002,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13002,13 +13017,13 @@
         <v>100</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13016,10 +13031,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13042,20 +13057,16 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>78</v>
       </c>
@@ -13064,10 +13075,10 @@
         <v>78</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>78</v>
@@ -13103,7 +13114,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13118,13 +13129,13 @@
         <v>100</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13132,10 +13143,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13158,16 +13169,16 @@
         <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13181,7 +13192,7 @@
         <v>78</v>
       </c>
       <c r="T96" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="U96" t="s" s="2">
         <v>78</v>
@@ -13217,7 +13228,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13232,13 +13243,13 @@
         <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13246,10 +13257,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>265</v>
+        <v>433</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13266,26 +13277,32 @@
         <v>78</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>266</v>
+        <v>386</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>267</v>
+        <v>434</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="R97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13329,7 +13346,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>269</v>
+        <v>433</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13344,24 +13361,24 @@
         <v>100</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>270</v>
+        <v>439</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>271</v>
+        <v>440</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>272</v>
+        <v>441</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>78</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>273</v>
+        <v>443</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13372,7 +13389,7 @@
         <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>78</v>
@@ -13384,18 +13401,20 @@
         <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>275</v>
+        <v>444</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>276</v>
+        <v>445</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
       </c>
@@ -13419,37 +13438,35 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>278</v>
+        <v>443</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>78</v>
@@ -13458,26 +13475,28 @@
         <v>100</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>279</v>
+        <v>451</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>280</v>
+        <v>452</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>281</v>
+        <v>106</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>78</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="D99" t="s" s="2">
         <v>78</v>
       </c>
@@ -13492,32 +13511,30 @@
         <v>78</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q99" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
         <v>78</v>
       </c>
@@ -13537,13 +13554,11 @@
         <v>78</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y99" s="2"/>
       <c r="Z99" t="s" s="2">
-        <v>78</v>
+        <v>456</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>78</v>
@@ -13561,13 +13576,13 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>78</v>
@@ -13576,24 +13591,24 @@
         <v>100</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>440</v>
+        <v>106</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13604,7 +13619,7 @@
         <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13613,23 +13628,19 @@
         <v>78</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>443</v>
+        <v>103</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>78</v>
       </c>
@@ -13653,74 +13664,74 @@
         <v>78</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AC100" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>442</v>
+        <v>105</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>451</v>
+        <v>106</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -13729,23 +13740,21 @@
         <v>78</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>443</v>
+        <v>110</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>78</v>
       </c>
@@ -13769,29 +13778,31 @@
         <v>78</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="Y101" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z101" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>442</v>
+        <v>116</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -13803,27 +13814,27 @@
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>451</v>
+        <v>106</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13831,7 +13842,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>88</v>
@@ -13843,19 +13854,23 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>103</v>
+        <v>339</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
       </c>
@@ -13903,25 +13918,25 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>105</v>
+        <v>343</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>106</v>
+        <v>345</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>78</v>
@@ -13932,21 +13947,21 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>78</v>
@@ -13958,17 +13973,15 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>78</v>
@@ -14005,31 +14018,31 @@
         <v>78</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>78</v>
@@ -14046,21 +14059,21 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>78</v>
@@ -14069,23 +14082,21 @@
         <v>78</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>314</v>
+        <v>110</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>78</v>
       </c>
@@ -14121,19 +14132,19 @@
         <v>78</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -14145,13 +14156,13 @@
         <v>78</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>78</v>
@@ -14162,10 +14173,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14173,7 +14184,7 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>88</v>
@@ -14185,19 +14196,23 @@
         <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
       </c>
@@ -14245,7 +14260,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14257,13 +14272,13 @@
         <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>106</v>
+        <v>359</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>78</v>
@@ -14274,21 +14289,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>78</v>
@@ -14297,19 +14312,19 @@
         <v>78</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>112</v>
+        <v>364</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14347,37 +14362,37 @@
         <v>78</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>116</v>
+        <v>365</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>106</v>
+        <v>367</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>78</v>
@@ -14388,10 +14403,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14399,7 +14414,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>88</v>
@@ -14414,19 +14429,17 @@
         <v>89</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>327</v>
+        <v>473</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>78</v>
@@ -14475,7 +14488,7 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -14490,10 +14503,10 @@
         <v>100</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>78</v>
@@ -14504,10 +14517,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14533,15 +14546,15 @@
         <v>102</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O108" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>78</v>
       </c>
@@ -14589,7 +14602,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -14604,10 +14617,10 @@
         <v>100</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>78</v>
@@ -14618,10 +14631,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14644,17 +14657,19 @@
         <v>89</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>168</v>
+        <v>386</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>472</v>
+        <v>387</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O109" t="s" s="2">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>78</v>
@@ -14703,7 +14718,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -14718,10 +14733,10 @@
         <v>100</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>78</v>
@@ -14732,10 +14747,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14761,14 +14776,16 @@
         <v>102</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O110" t="s" s="2">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -14817,7 +14834,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -14832,10 +14849,10 @@
         <v>100</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>78</v>
@@ -14846,12 +14863,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="D111" t="s" s="2">
         <v>78</v>
       </c>
@@ -14872,19 +14891,19 @@
         <v>89</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>362</v>
+        <v>482</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -14909,13 +14928,11 @@
         <v>78</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y111" s="2"/>
       <c r="Z111" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>78</v>
@@ -14933,13 +14950,13 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>366</v>
+        <v>443</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>78</v>
@@ -14948,24 +14965,24 @@
         <v>100</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>367</v>
+        <v>451</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>368</v>
+        <v>452</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>78</v>
+        <v>453</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14985,23 +15002,19 @@
         <v>78</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>102</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>371</v>
+        <v>103</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>78</v>
       </c>
@@ -15049,7 +15062,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>375</v>
+        <v>105</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -15061,13 +15074,13 @@
         <v>78</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>377</v>
+        <v>106</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>78</v>
@@ -15078,23 +15091,21 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C113" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>78</v>
@@ -15103,23 +15114,21 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>481</v>
+        <v>110</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>78</v>
       </c>
@@ -15143,29 +15152,31 @@
         <v>78</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="Y113" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z113" t="s" s="2">
-        <v>482</v>
+        <v>78</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC113" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>442</v>
+        <v>116</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15177,27 +15188,27 @@
         <v>78</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>451</v>
+        <v>106</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15205,7 +15216,7 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>88</v>
@@ -15217,19 +15228,23 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>103</v>
+        <v>339</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
       </c>
@@ -15277,25 +15292,25 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>105</v>
+        <v>343</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>106</v>
+        <v>345</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>78</v>
@@ -15306,21 +15321,21 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>78</v>
@@ -15332,17 +15347,15 @@
         <v>78</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N115" s="2"/>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>78</v>
@@ -15379,31 +15392,31 @@
         <v>78</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC115" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>78</v>
@@ -15420,21 +15433,21 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>78</v>
@@ -15443,23 +15456,21 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>314</v>
+        <v>110</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>78</v>
       </c>
@@ -15495,19 +15506,19 @@
         <v>78</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC116" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -15519,13 +15530,13 @@
         <v>78</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>78</v>
@@ -15536,10 +15547,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15547,7 +15558,7 @@
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>88</v>
@@ -15559,19 +15570,23 @@
         <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>78</v>
       </c>
@@ -15619,7 +15634,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -15631,13 +15646,13 @@
         <v>78</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>106</v>
+        <v>359</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>78</v>
@@ -15648,21 +15663,21 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>78</v>
@@ -15671,19 +15686,19 @@
         <v>78</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>112</v>
+        <v>364</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -15721,37 +15736,37 @@
         <v>78</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>116</v>
+        <v>365</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>106</v>
+        <v>367</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>78</v>
@@ -15762,10 +15777,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15773,7 +15788,7 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>88</v>
@@ -15788,19 +15803,17 @@
         <v>89</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>327</v>
+        <v>473</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>78</v>
@@ -15849,7 +15862,7 @@
         <v>78</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -15864,10 +15877,10 @@
         <v>100</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>78</v>
@@ -15878,10 +15891,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15907,15 +15920,15 @@
         <v>102</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O120" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>78</v>
       </c>
@@ -15963,7 +15976,7 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -15978,10 +15991,10 @@
         <v>100</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>78</v>
@@ -15992,10 +16005,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16018,17 +16031,19 @@
         <v>89</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>168</v>
+        <v>386</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>472</v>
+        <v>387</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N121" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O121" t="s" s="2">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>78</v>
@@ -16077,7 +16092,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16092,10 +16107,10 @@
         <v>100</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>78</v>
@@ -16106,10 +16121,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16135,14 +16150,16 @@
         <v>102</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O122" t="s" s="2">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>78</v>
@@ -16191,7 +16208,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16206,10 +16223,10 @@
         <v>100</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>78</v>
@@ -16220,12 +16237,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="D123" t="s" s="2">
         <v>78</v>
       </c>
@@ -16246,19 +16265,19 @@
         <v>89</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>362</v>
+        <v>497</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>78</v>
@@ -16283,13 +16302,11 @@
         <v>78</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y123" s="2"/>
       <c r="Z123" t="s" s="2">
-        <v>78</v>
+        <v>498</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>78</v>
@@ -16307,13 +16324,13 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>366</v>
+        <v>443</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>78</v>
@@ -16322,24 +16339,24 @@
         <v>100</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>367</v>
+        <v>451</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>368</v>
+        <v>452</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>78</v>
+        <v>453</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16359,23 +16376,19 @@
         <v>78</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>102</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>371</v>
+        <v>103</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>78</v>
       </c>
@@ -16423,7 +16436,7 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>375</v>
+        <v>105</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -16435,13 +16448,13 @@
         <v>78</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>377</v>
+        <v>106</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>78</v>
@@ -16452,23 +16465,21 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C125" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>78</v>
@@ -16477,23 +16488,21 @@
         <v>78</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>496</v>
+        <v>110</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>78</v>
       </c>
@@ -16517,29 +16526,31 @@
         <v>78</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="Y125" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z125" t="s" s="2">
-        <v>497</v>
+        <v>78</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>442</v>
+        <v>116</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -16551,27 +16562,27 @@
         <v>78</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>451</v>
+        <v>106</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16579,7 +16590,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>88</v>
@@ -16591,19 +16602,23 @@
         <v>78</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>103</v>
+        <v>339</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P126" t="s" s="2">
         <v>78</v>
       </c>
@@ -16651,25 +16666,25 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>105</v>
+        <v>343</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>106</v>
+        <v>345</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>78</v>
@@ -16680,21 +16695,21 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>78</v>
@@ -16706,17 +16721,15 @@
         <v>78</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>78</v>
@@ -16753,31 +16766,31 @@
         <v>78</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC127" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD127" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>78</v>
@@ -16794,21 +16807,21 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>78</v>
@@ -16817,23 +16830,21 @@
         <v>78</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>314</v>
+        <v>110</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>78</v>
       </c>
@@ -16869,19 +16880,19 @@
         <v>78</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC128" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD128" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -16893,13 +16904,13 @@
         <v>78</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>78</v>
@@ -16910,10 +16921,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16921,7 +16932,7 @@
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>88</v>
@@ -16933,19 +16944,23 @@
         <v>78</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P129" t="s" s="2">
         <v>78</v>
       </c>
@@ -16993,7 +17008,7 @@
         <v>78</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17005,13 +17020,13 @@
         <v>78</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>106</v>
+        <v>359</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>78</v>
@@ -17022,21 +17037,21 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>78</v>
@@ -17045,19 +17060,19 @@
         <v>78</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>112</v>
+        <v>364</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -17095,37 +17110,37 @@
         <v>78</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC130" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>116</v>
+        <v>365</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>106</v>
+        <v>367</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>78</v>
@@ -17136,10 +17151,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17147,7 +17162,7 @@
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>88</v>
@@ -17162,19 +17177,17 @@
         <v>89</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>327</v>
+        <v>473</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>78</v>
@@ -17223,7 +17236,7 @@
         <v>78</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -17238,10 +17251,10 @@
         <v>100</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>78</v>
@@ -17252,10 +17265,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17281,15 +17294,15 @@
         <v>102</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O132" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P132" t="s" s="2">
         <v>78</v>
       </c>
@@ -17337,7 +17350,7 @@
         <v>78</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -17352,10 +17365,10 @@
         <v>100</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>78</v>
@@ -17366,10 +17379,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17392,17 +17405,19 @@
         <v>89</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>168</v>
+        <v>386</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>472</v>
+        <v>387</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N133" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O133" t="s" s="2">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>78</v>
@@ -17451,7 +17466,7 @@
         <v>78</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
@@ -17466,10 +17481,10 @@
         <v>100</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>78</v>
@@ -17480,10 +17495,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17509,14 +17524,16 @@
         <v>102</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N134" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O134" t="s" s="2">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>78</v>
@@ -17565,7 +17582,7 @@
         <v>78</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -17580,10 +17597,10 @@
         <v>100</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>78</v>
@@ -17594,10 +17611,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17620,19 +17637,19 @@
         <v>89</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>361</v>
+        <v>102</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>362</v>
+        <v>511</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>363</v>
+        <v>512</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>364</v>
+        <v>513</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>365</v>
+        <v>514</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>78</v>
@@ -17681,7 +17698,7 @@
         <v>78</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>366</v>
+        <v>510</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -17690,19 +17707,19 @@
         <v>88</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>367</v>
+        <v>515</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>368</v>
+        <v>516</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>78</v>
@@ -17710,10 +17727,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17724,7 +17741,7 @@
         <v>79</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>78</v>
@@ -17733,22 +17750,22 @@
         <v>78</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>102</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>371</v>
+        <v>519</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>372</v>
+        <v>520</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>373</v>
+        <v>521</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>374</v>
+        <v>522</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>78</v>
@@ -17797,13 +17814,13 @@
         <v>78</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>375</v>
+        <v>518</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>78</v>
@@ -17812,10 +17829,10 @@
         <v>100</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>377</v>
+        <v>516</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>78</v>
@@ -17826,10 +17843,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -17840,7 +17857,7 @@
         <v>79</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>78</v>
@@ -17849,22 +17866,22 @@
         <v>78</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>102</v>
+        <v>524</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>78</v>
@@ -17913,28 +17930,28 @@
         <v>78</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>100</v>
+        <v>529</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>78</v>
@@ -17942,10 +17959,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -17968,19 +17985,19 @@
         <v>78</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>102</v>
+        <v>534</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>78</v>
@@ -18029,7 +18046,7 @@
         <v>78</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -18038,19 +18055,19 @@
         <v>80</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>100</v>
+        <v>539</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>78</v>
+        <v>540</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>78</v>
+        <v>542</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>78</v>
@@ -18058,10 +18075,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18072,7 +18089,7 @@
         <v>79</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>78</v>
@@ -18081,22 +18098,20 @@
         <v>78</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>78</v>
@@ -18145,28 +18160,28 @@
         <v>78</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>528</v>
+        <v>100</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>529</v>
+        <v>439</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>531</v>
+        <v>106</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>78</v>
@@ -18174,10 +18189,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18188,7 +18203,7 @@
         <v>79</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>78</v>
@@ -18200,20 +18215,16 @@
         <v>78</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>533</v>
+        <v>102</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>534</v>
+        <v>103</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>78</v>
       </c>
@@ -18261,28 +18272,28 @@
         <v>78</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>538</v>
+        <v>78</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>539</v>
+        <v>78</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>540</v>
+        <v>106</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>541</v>
+        <v>78</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>78</v>
@@ -18290,21 +18301,21 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>78</v>
@@ -18313,21 +18324,21 @@
         <v>78</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>543</v>
+        <v>109</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>544</v>
+        <v>110</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N141" s="2"/>
-      <c r="O141" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
         <v>78</v>
       </c>
@@ -18363,40 +18374,40 @@
         <v>78</v>
       </c>
       <c r="AB141" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC141" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>542</v>
+        <v>116</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>547</v>
+        <v>106</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>78</v>
@@ -18404,10 +18415,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18427,18 +18438,20 @@
         <v>78</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>102</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>103</v>
+        <v>552</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N142" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
         <v>78</v>
@@ -18487,7 +18500,7 @@
         <v>78</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>105</v>
+        <v>555</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
@@ -18496,16 +18509,16 @@
         <v>88</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>78</v>
+        <v>556</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>78</v>
@@ -18516,21 +18529,21 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>78</v>
@@ -18539,19 +18552,19 @@
         <v>78</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>110</v>
+        <v>558</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>111</v>
+        <v>559</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>112</v>
+        <v>560</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -18577,49 +18590,47 @@
         <v>78</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y143" s="2"/>
       <c r="Z143" t="s" s="2">
-        <v>78</v>
+        <v>456</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB143" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC143" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>116</v>
+        <v>561</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>78</v>
@@ -18630,10 +18641,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18656,16 +18667,16 @@
         <v>89</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -18715,7 +18726,7 @@
         <v>78</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -18724,7 +18735,7 @@
         <v>88</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>555</v>
+        <v>78</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>100</v>
@@ -18733,7 +18744,7 @@
         <v>78</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>191</v>
+        <v>567</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>78</v>
@@ -18744,10 +18755,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -18770,16 +18781,16 @@
         <v>89</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -18805,11 +18816,13 @@
         <v>78</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y145" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z145" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>78</v>
@@ -18827,7 +18840,7 @@
         <v>78</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>79</v>
@@ -18856,10 +18869,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -18870,7 +18883,7 @@
         <v>79</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H146" t="s" s="2">
         <v>78</v>
@@ -18879,21 +18892,23 @@
         <v>78</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>215</v>
+        <v>574</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="O146" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="P146" t="s" s="2">
         <v>78</v>
       </c>
@@ -18941,13 +18956,13 @@
         <v>78</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>78</v>
@@ -18959,7 +18974,7 @@
         <v>78</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>78</v>
@@ -18970,10 +18985,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -18993,20 +19008,18 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>102</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>568</v>
+        <v>103</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
         <v>78</v>
@@ -19055,7 +19068,7 @@
         <v>78</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>571</v>
+        <v>105</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>79</v>
@@ -19067,13 +19080,13 @@
         <v>78</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>78</v>
@@ -19084,14 +19097,14 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
@@ -19110,20 +19123,18 @@
         <v>78</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>573</v>
+        <v>109</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>574</v>
+        <v>110</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>575</v>
+        <v>111</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>577</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
         <v>78</v>
       </c>
@@ -19171,7 +19182,7 @@
         <v>78</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>572</v>
+        <v>116</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>79</v>
@@ -19183,13 +19194,13 @@
         <v>78</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>578</v>
+        <v>106</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>78</v>
@@ -19200,42 +19211,46 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>78</v>
+        <v>583</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>103</v>
+        <v>584</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P149" t="s" s="2">
         <v>78</v>
       </c>
@@ -19283,25 +19298,25 @@
         <v>78</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>105</v>
+        <v>586</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>78</v>
@@ -19312,21 +19327,21 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>78</v>
@@ -19338,18 +19353,18 @@
         <v>78</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>110</v>
+        <v>588</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O150" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="P150" t="s" s="2">
         <v>78</v>
       </c>
@@ -19373,13 +19388,13 @@
         <v>78</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>78</v>
+        <v>591</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>78</v>
+        <v>592</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>78</v>
@@ -19397,25 +19412,25 @@
         <v>78</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>116</v>
+        <v>587</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>106</v>
+        <v>593</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>78</v>
@@ -19426,45 +19441,43 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>582</v>
+        <v>78</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>109</v>
+        <v>595</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>212</v>
+        <v>598</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>78</v>
@@ -19513,25 +19526,25 @@
         <v>78</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>78</v>
+        <v>599</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>191</v>
+        <v>600</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>78</v>
@@ -19542,10 +19555,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19556,7 +19569,7 @@
         <v>79</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>78</v>
@@ -19568,17 +19581,17 @@
         <v>78</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>238</v>
+        <v>524</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>587</v>
+        <v>525</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>588</v>
+        <v>526</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>78</v>
@@ -19603,13 +19616,13 @@
         <v>78</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>590</v>
+        <v>78</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>591</v>
+        <v>78</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>78</v>
@@ -19627,28 +19640,28 @@
         <v>78</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>100</v>
+        <v>603</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>78</v>
+        <v>530</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>592</v>
+        <v>531</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>78</v>
+        <v>532</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>78</v>
@@ -19656,10 +19669,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -19682,17 +19695,19 @@
         <v>78</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>594</v>
+        <v>534</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>595</v>
+        <v>535</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N153" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="O153" t="s" s="2">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>78</v>
@@ -19741,7 +19756,7 @@
         <v>78</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -19750,19 +19765,19 @@
         <v>88</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>598</v>
+        <v>540</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>599</v>
+        <v>541</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>78</v>
+        <v>542</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>78</v>
@@ -19770,10 +19785,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -19796,17 +19811,17 @@
         <v>78</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>524</v>
+        <v>608</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>525</v>
+        <v>609</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>78</v>
@@ -19855,7 +19870,7 @@
         <v>78</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
@@ -19864,251 +19879,21 @@
         <v>80</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>602</v>
+        <v>100</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>529</v>
+        <v>78</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>530</v>
+        <v>106</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>531</v>
+        <v>78</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E155" s="2"/>
-      <c r="F155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="P155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q155" s="2"/>
-      <c r="R155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AN155" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E156" s="2"/>
-      <c r="F156" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N156" s="2"/>
-      <c r="O156" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="P156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q156" s="2"/>
-      <c r="R156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN156" t="s" s="2">
         <v>78</v>
       </c>
     </row>
